--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H200_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5672131147540984</v>
+        <v>0.5424836601307189</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9558011049723757</v>
+        <v>0.9171270718232044</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E2" t="n">
-        <v>0.573170731707317</v>
+        <v>0.5274390243902439</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7119341563786009</v>
+        <v>0.6817248459958931</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5304878048780488</v>
+        <v>0.4786585365853658</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09119262355144848</v>
+        <v>0.07646758625259621</v>
       </c>
       <c r="J2" t="n">
-        <v>1071.436525246929</v>
+        <v>1036.153898903991</v>
       </c>
       <c r="K2" t="n">
-        <v>1442814.472887919</v>
+        <v>1585346.212009283</v>
       </c>
       <c r="L2" t="n">
-        <v>1201.172124588279</v>
+        <v>1259.105322047875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7278262485004848</v>
+        <v>0.7009389397900562</v>
       </c>
     </row>
   </sheetData>
